--- a/va_facility_data_2025-02-20/Oswego VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oswego%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oswego VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oswego%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc97bc05e8c1646ac8ad983ebaaef9688"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf8f17f15841e4deaa4100213878f4774"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd48946db9ea7444a97d3ff77a9ae27d7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3b8d3e0ab7c74bd3ab8c3cdd739fefc4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc24fe39b7f10461fa80844228e2dd523"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R67ef30d0109d435fb0f573d706c17bb3"/>
   </x:sheets>
 </x:workbook>
 </file>
